--- a/results/I3_N5_M3_T45_C100_DepCentral_s4_P6_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>872.2574666690109</v>
+        <v>469.5815974440545</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.72746666901232</v>
+        <v>37.58159744405455</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.087365867531738</v>
+        <v>5.764833041814827</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.087365867531738</v>
+        <v>5.764833041814827</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>479.7799999999985</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.75</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,12 +606,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -733,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -780,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -791,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -802,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -813,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -907,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>35.32864898449879</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.076480522338784</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35.50084538957422</v>
+        <v>36.65075183719856</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.64645516879379</v>
+        <v>41.09348202631362</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38.92351947766122</v>
+        <v>41.79636161641812</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.81602556806575</v>
+        <v>34.35028734683124</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,13 +1031,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1023,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1037,15 +1059,43 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1170,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1181,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1203,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>109.97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>113.75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1225,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>117.185</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -1236,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>113.005</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.675</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
@@ -1258,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.07000000000073</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1269,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66000000000073</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1280,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>49.43500000000073</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1291,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.91500000000073</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1302,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>42.86500000000073</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1313,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000000007</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000000008</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1335,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000000007</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000000008</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000000007</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -1368,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>121.9549999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>135.2699999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1390,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>129.5199999999998</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -1401,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>135.9449999999998</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -1412,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>134.9399999999998</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -1423,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>121.9549999999998</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33">
@@ -1434,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>135.2699999999998</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -1445,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>129.5199999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1456,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>135.9449999999998</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -1467,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.9399999999998</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -1478,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>109.97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -1489,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>113.75</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1500,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>117.185</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -1511,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>113.005</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -1522,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>105.675</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
@@ -1533,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>107.9950000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -1544,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>105.5100000000001</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44">
@@ -1555,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>104.6650000000001</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45">
@@ -1566,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>104.5050000000001</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
@@ -1577,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>96.60500000000008</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21.95499999999979</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -1635,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>35.26999999999978</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1646,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.51999999999979</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1657,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>35.9449999999998</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1668,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>34.93999999999977</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1679,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>9.969999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1690,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1701,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.185</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1712,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.005</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -1723,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>5.674999999999997</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1734,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.995000000000083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1745,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.510000000000066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1756,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.665000000000081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.505000000000077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1825,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1836,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1847,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1858,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1869,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1880,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1891,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1902,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1913,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1924,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1935,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.925000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1946,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1957,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1968,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1979,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1990,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2012,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2023,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2103,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2130,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2141,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2152,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2163,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2177,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2185,10 +2235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2196,10 +2246,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2207,10 +2257,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2218,10 +2268,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2232,53 +2282,9 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
